--- a/biology/Histoire de la zoologie et de la botanique/Académie_américaine_des_arts_et_des_sciences/Académie_américaine_des_arts_et_des_sciences.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Académie_américaine_des_arts_et_des_sciences/Académie_américaine_des_arts_et_des_sciences.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_am%C3%A9ricaine_des_arts_et_des_sciences</t>
+          <t>Académie_américaine_des_arts_et_des_sciences</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Académie américaine des arts et des sciences (en anglais American Academy of Arts and Sciences) est une organisation vouée à l’enseignement et au progrès des connaissances. Elle joue le rôle de société honorifique aux États-Unis.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_am%C3%A9ricaine_des_arts_et_des_sciences</t>
+          <t>Académie_américaine_des_arts_et_des_sciences</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">James Bowdoin (1726-1790), John Adams (1735-1826) et John Hancock (1737-1793) fondent l’Académie à Boston durant la guerre d'indépendance des États-Unis. Leur objectif, comme établi dans leur charte, est de « cultivate every art and science which may tend to advance the interest, honour, dignity, and happiness of a free, independent, and virtuous people » (« cultiver chacun des arts et des sciences qui peuvent contribuer à faire avancer l’intérêt, l’honneur, la dignité et le bonheur d’un peuple libre, indépendant et vertueux »). Ils furent bientôt rejoints par d’autres personnalités et on remarque parmi ses premiers membres Benjamin Franklin (1706-1790), George Washington (1732-1799), Thomas Jefferson (1743-1826) ou Alexander Hamilton (1755 ou 1757-1804).
 Aujourd’hui, le siège de l’Académie est situé à Cambridge. Elle organise des conférences, des projets de recherches et publie un trimestriel, Dædalus. L’institution compte 4 000 membres et plusieurs centaines de membres étrangers honoraires. Durant l’année, ses membres sont invités à participer à des rencontres se déroulant à Cambridge ou dans des centres régionaux comme l’université de Chicago ou de Californie.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_am%C3%A9ricaine_des_arts_et_des_sciences</t>
+          <t>Académie_américaine_des_arts_et_des_sciences</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Quelques membres francophones
-Sciences
+          <t>Quelques membres francophones</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sciences
 Yvonne Choquet-Bruhat, mathématicienne et physicienne française, depuis 1985
 Pierre Corvol, biologiste français, depuis 2000
 Dino Moras, biochimiste français, depuis 1998
